--- a/similarities/split_global/harmonic_similarity_timestamps_344.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_344.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,430 +484,450 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min7', 'C:7']]</t>
+          <t>['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7']]</t>
+          <t>['A:min', 'D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.060000', '0:00:22.100000')]</t>
+          <t>('0:00:00.300000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.420000', '0:00:09.260000')]</t>
+          <t>('0:00:11.200000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=20.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=0.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=7.42']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=11.2</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj6']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:08.040000', '0:00:09.880000')]</t>
+          <t>('0:01:29.080000', '0:01:38.100000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.850000', '0:00:26.110000')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=8.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=22.85']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:56.720000', '0:00:58.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
+          <t>('0:00:07.960000', '0:00:13.120000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:22.200000')]</t>
+          <t>('0:00:13.980000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=13.72']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'G:min7']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:7/F#', 'G:maj', 'E:min7/G']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:15.539000', '0:00:22.860000')]</t>
+          <t>('0:00:20.600000', '0:00:24.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:21.960000', '0:01:25.520000')]</t>
+          <t>('0:00:58.320000', '0:01:01.680000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=15.539']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=20.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=81.96']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>isophonics_245</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F#:min', 'B:min', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:36.732085', '0:00:41.248366')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:41.580000', '0:00:43.480000')]</t>
+          <t>('0:00:07.220000', '0:00:10.760000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-245#t=36.732085</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:12.500000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:28.479798', '0:00:31.393902')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=28.479798']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['Ab', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C']]</t>
+          <t>['E', 'E:7/3', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:23.600000', '0:00:40.320000'), ('0:00:00.360000', '0:00:05.600000'), ('0:00:47.140000', '0:00:55.200000')]</t>
+          <t>('0:01:32.030000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:32.200000', '0:00:33.700000'), ('0:00:08.200000', '0:00:12.660000'), ('0:00:32.060000', '0:00:33.280000')]</t>
+          <t>('0:00:20.410362', '0:00:24.856984')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=23.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=47.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=92.03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=32.06']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=20.410362</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -917,37 +937,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:20.020000'), ('0:01:14.100000', '0:01:20.040000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:01:39.600000', '0:01:51.620000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=99.6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -957,237 +977,249 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:18.071496', '0:00:25.606371')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:30.820000', '0:00:33.420000')]</t>
+          <t>('0:01:24', '0:01:30.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-232#t=18.071496']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=30.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=84.0</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['Ab', 'Bb', 'Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:05.280000', '0:01:14.480000')]</t>
+          <t>('0:00:18.675377', '0:00:25.107304')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:39.180000', '0:00:53.360000')]</t>
+          <t>('0:00:07.043000', '0:00:13.688000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=18.675377</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=7.043</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F/3', 'Bb', 'C:maj', 'F:maj']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:14.751043', '0:00:24.108684')]</t>
+          <t>('0:01:32.040000', '0:01:44.400000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:03.461000', '0:01:06.732000')]</t>
+          <t>('0:00:36.420000', '0:00:39.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=14.751043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.461']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=36.42</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb'], ['Db', 'Ab', 'Db']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988'), ('0:00:05.571955', '0:00:28.079297')]</t>
+          <t>('0:00:10.820000', '0:00:17.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:17.840000', '0:00:26.980000'), ('0:00:00.740000', '0:00:21.500000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=5.571955']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=0.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.920000', '0:00:11.960000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:52.680839', '0:00:55.420793')]</t>
+          <t>('0:00:27.760000', '0:00:38.140000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=9.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=52.680839']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
